--- a/data/trans_orig/P14B30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC23103-FD89-4531-A698-6B1D9AC27442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A7CFD4-4EF1-4B09-9AAC-F66FA14A16FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5CDDA97-5316-44CE-B20F-4739E48B8EFA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F49F571-6B91-4929-8B22-33F4181047A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>15,84%</t>
+    <t>15,97%</t>
   </si>
   <si>
     <t>84,46%</t>
@@ -114,7 +114,7 @@
     <t>15,54%</t>
   </si>
   <si>
-    <t>84,16%</t>
+    <t>84,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -162,10 +162,10 @@
     <t>69,83%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -183,10 +183,10 @@
     <t>30,17%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -207,7 +207,7 @@
     <t>67,13%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>19,85%</t>
   </si>
   <si>
     <t>48,68%</t>
@@ -216,16 +216,16 @@
     <t>61,6%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>80,15%</t>
   </si>
   <si>
     <t>51,32%</t>
@@ -234,10 +234,10 @@
     <t>38,4%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -246,7 +246,7 @@
     <t>80,59%</t>
   </si>
   <si>
-    <t>31,94%</t>
+    <t>20,12%</t>
   </si>
   <si>
     <t>76,31%</t>
@@ -258,13 +258,13 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>45,44%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>68,06%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>23,69%</t>
@@ -276,61 +276,61 @@
     <t>21,34%</t>
   </si>
   <si>
-    <t>54,56%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -345,7 +345,7 @@
     <t>47,55%</t>
   </si>
   <si>
-    <t>88,43%</t>
+    <t>87,84%</t>
   </si>
   <si>
     <t>43,45%</t>
@@ -354,7 +354,7 @@
     <t>52,45%</t>
   </si>
   <si>
-    <t>11,57%</t>
+    <t>12,16%</t>
   </si>
   <si>
     <t>35,04%</t>
@@ -363,7 +363,7 @@
     <t>20,29%</t>
   </si>
   <si>
-    <t>70,29%</t>
+    <t>81,58%</t>
   </si>
   <si>
     <t>64,96%</t>
@@ -372,7 +372,7 @@
     <t>79,71%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>18,42%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -414,7 +414,7 @@
     <t>25,75%</t>
   </si>
   <si>
-    <t>70,47%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -423,13 +423,13 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>50,3%</t>
+    <t>49,71%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>29,53%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -438,61 +438,61 @@
     <t>81,65%</t>
   </si>
   <si>
-    <t>49,7%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8847C2DB-EF30-4C31-9594-7FB822C29A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF449C25-DE0F-4BAF-AD02-E3532E6321E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2411,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E643A8-3B7E-4A6E-BE9F-4F1A70CE8880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76783E9-7A65-40D1-94CD-EEEDF1E4CFF1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A7CFD4-4EF1-4B09-9AAC-F66FA14A16FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F15335B-B09E-45E9-B2AC-F6DB56C2A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F49F571-6B91-4929-8B22-33F4181047A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5389480F-BFC8-49D4-965D-5E4033E8B161}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="148">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -96,25 +96,25 @@
     <t>50,45%</t>
   </si>
   <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,19 +153,19 @@
     <t>62,35%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -174,19 +174,19 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -207,7 +207,7 @@
     <t>67,13%</t>
   </si>
   <si>
-    <t>19,85%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>48,68%</t>
@@ -216,16 +216,16 @@
     <t>61,6%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>80,15%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>51,32%</t>
@@ -234,10 +234,10 @@
     <t>38,4%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -258,7 +258,7 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>45,21%</t>
+    <t>45,18%</t>
   </si>
   <si>
     <t>19,41%</t>
@@ -276,67 +276,61 @@
     <t>21,34%</t>
   </si>
   <si>
-    <t>54,79%</t>
+    <t>54,82%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>91,05%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>8,95%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya cirrosis le limita en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población cuya cirrosis le limita en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>56,55%</t>
@@ -345,25 +339,19 @@
     <t>47,55%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
     <t>43,45%</t>
   </si>
   <si>
     <t>52,45%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
     <t>35,04%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>81,58%</t>
+    <t>81,89%</t>
   </si>
   <si>
     <t>64,96%</t>
@@ -372,7 +360,7 @@
     <t>79,71%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>18,11%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -423,7 +411,7 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>56,47%</t>
   </si>
   <si>
     <t>74,25%</t>
@@ -438,61 +426,61 @@
     <t>81,65%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>43,53%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF449C25-DE0F-4BAF-AD02-E3532E6321E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F5928A-D0F4-4976-BFFD-2032D8CC621E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2247,10 +2235,10 @@
         <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -2259,13 +2247,13 @@
         <v>12745</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -2274,13 +2262,13 @@
         <v>31565</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2283,13 @@
         <v>6112</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2310,13 +2298,13 @@
         <v>9427</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2325,13 +2313,13 @@
         <v>15539</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2375,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76783E9-7A65-40D1-94CD-EEEDF1E4CFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54333F7A-7728-4AD4-A0ED-D96F1DD38778}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2428,7 +2416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2535,7 +2523,7 @@
         <v>2755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -2565,13 +2553,13 @@
         <v>2755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2574,7 @@
         <v>2116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -2616,10 +2604,10 @@
         <v>3038</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -2690,7 +2678,7 @@
         <v>1132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -2720,13 +2708,13 @@
         <v>1132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2729,7 @@
         <v>2099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
@@ -2771,10 +2759,10 @@
         <v>4448</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3000,7 +2988,7 @@
         <v>1000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
@@ -3030,7 +3018,7 @@
         <v>3101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
@@ -3051,7 +3039,7 @@
         <v>973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
@@ -3081,7 +3069,7 @@
         <v>973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
@@ -3304,7 +3292,7 @@
         <v>792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -3334,13 +3322,13 @@
         <v>792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3343,7 @@
         <v>2184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -3385,10 +3373,10 @@
         <v>3181</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3489,7 +3477,7 @@
         <v>3023</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
@@ -3540,7 +3528,7 @@
         <v>1376</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>15</v>
@@ -3614,13 +3602,13 @@
         <v>2001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3635,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3644,13 +3632,13 @@
         <v>2000</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,10 +3653,10 @@
         <v>5769</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3683,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -3695,10 +3683,10 @@
         <v>8903</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>16</v>
@@ -3769,13 +3757,13 @@
         <v>10703</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3784,13 +3772,13 @@
         <v>4058</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3799,13 +3787,13 @@
         <v>14760</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3808,13 @@
         <v>14061</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3835,13 +3823,13 @@
         <v>9662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3850,13 +3838,13 @@
         <v>23723</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
